--- a/admin/assets/uploads/application.xlsx
+++ b/admin/assets/uploads/application.xlsx
@@ -1,84 +1,593 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SunRay\Dropbox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1C303-1D85-4DB4-A7EC-DC87D754FECF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4BD9C963-AB39-43C1-BE0A-41A112922C47}"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Programming Language</t>
-  </si>
-  <si>
-    <t>Systems Analysis(15)</t>
-  </si>
-  <si>
-    <t>Other(5)</t>
-  </si>
-  <si>
-    <t>Programming Experience(5)</t>
-  </si>
-  <si>
-    <t>RECOMMENDATION</t>
-  </si>
-  <si>
-    <t>Database Knowledge(15)</t>
-  </si>
-  <si>
-    <t>Logical Reasoning(45)</t>
-  </si>
-  <si>
-    <t>Code Structure (10)</t>
-  </si>
-  <si>
-    <t>U.I.(5)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+  <si>
+    <t>Applicant Number</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Other Name(s)</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>National ID Type</t>
+  </si>
+  <si>
+    <t>National ID Number</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Birth Country</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Home Town</t>
+  </si>
+  <si>
+    <t>Home Town Region</t>
+  </si>
+  <si>
+    <t>Name Of High School</t>
+  </si>
+  <si>
+    <t>High School Program</t>
+  </si>
+  <si>
+    <t>Disability Status</t>
+  </si>
+  <si>
+    <t>Disability Type</t>
+  </si>
+  <si>
+    <t>Institution Code</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>Programme Applied Code</t>
+  </si>
+  <si>
+    <t>Programme Offered Code</t>
+  </si>
+  <si>
+    <t>Admission Year</t>
+  </si>
+  <si>
+    <t>Programme Type</t>
+  </si>
+  <si>
+    <t>Application Status</t>
+  </si>
+  <si>
+    <t>Level Admitted</t>
+  </si>
+  <si>
+    <t>Fee Payment Type</t>
+  </si>
+  <si>
+    <t>UPS/2022/0001</t>
+  </si>
+  <si>
+    <t>Mildred</t>
+  </si>
+  <si>
+    <t>Abbey</t>
+  </si>
+  <si>
+    <t>Ashiokai</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>GHA-038473-9833</t>
+  </si>
+  <si>
+    <t>Ghanaian</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Nkroful</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Accra Girls</t>
+  </si>
+  <si>
+    <t>General Science</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPS/001/0004</t>
+    </r>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>Qualified</t>
+  </si>
+  <si>
+    <t>Full Fee-Paying</t>
+  </si>
+  <si>
+    <t>UG/2020/0098</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Yankson</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Ghana Card</t>
+  </si>
+  <si>
+    <t>GHA-03245-98361</t>
+  </si>
+  <si>
+    <t>Togolese</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Moslem</t>
+  </si>
+  <si>
+    <t>Lome</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Mfantispim School</t>
+  </si>
+  <si>
+    <t>General Arts</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>UG0010</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>Government Subsidized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -86,24 +595,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -152,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,26 +982,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -237,23 +1017,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,68 +1158,310 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DA01CF-878A-4033-8D70-8B4858F7AB61}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4537037037037" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1759259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.8148148148148" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5462962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.0925925925926" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.9074074074074" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="13.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="15.2222222222222" customWidth="1"/>
+    <col min="19" max="19" width="15.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="23.7777777777778" customWidth="1"/>
+    <col min="21" max="21" width="24.1111111111111" customWidth="1"/>
+    <col min="22" max="22" width="14.5555555555556" customWidth="1"/>
+    <col min="23" max="23" width="16.1111111111111" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="25" max="25" width="17.1111111111111" customWidth="1"/>
+    <col min="26" max="26" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2">
+        <v>23833</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+      <c r="V2">
+        <v>2022</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28551</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>2020</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"Ghana Card, National ID,Passport,Social Security,Voter ID"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"Ahafo,Ashanti,Bono East,Brong Ahafo,Central,Eastern,Greater Accra,North East,Northern,Oti,Savannah,Upper East,Upper West,Western,Western North,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+      <formula1>"Undergraduate,Postgraduate,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:W$1048576">
+      <formula1>"distance,evening,regular,weekend"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X$1:X$1048576">
+      <formula1>"Qualified,Offered,Enrolled,Graduated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576">
+      <formula1>"Full Fee-Paying, Government Subsidized, Scholarship"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>